--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1446.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1446.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.70739007013116</v>
+        <v>1.25623881816864</v>
       </c>
       <c r="B1">
-        <v>1.996573340528216</v>
+        <v>2.474175214767456</v>
       </c>
       <c r="C1">
-        <v>2.568936657173172</v>
+        <v>4.935407161712646</v>
       </c>
       <c r="D1">
-        <v>2.65974734474215</v>
+        <v>3.007672786712646</v>
       </c>
       <c r="E1">
-        <v>0.6267014179784179</v>
+        <v>1.112744450569153</v>
       </c>
     </row>
   </sheetData>
